--- a/obj/objects.xlsx
+++ b/obj/objects.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="homepage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -40,16 +41,13 @@
     <t>click</t>
   </si>
   <si>
-    <t>川菜</t>
-  </si>
-  <si>
-    <t>chuancai</t>
-  </si>
-  <si>
-    <t>xiangcai</t>
-  </si>
-  <si>
-    <t>湘菜</t>
+    <t>com.android.calculator2:id/digit_2</t>
+  </si>
+  <si>
+    <t>digit_1</t>
+  </si>
+  <si>
+    <t>Number botton</t>
   </si>
 </sst>
 </file>
@@ -395,7 +393,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,16 +443,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,13 +463,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
